--- a/CFA_Exploration.xlsx
+++ b/CFA_Exploration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datdo\Documents\Bethel\11_FinalProject\Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubProjects\Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D8D987-E77A-44B0-9840-CD403517FFEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F3EAE1-49E0-4ADE-8AFE-A8CFC6F4050E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="660" windowWidth="23280" windowHeight="14430" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29985" yWindow="960" windowWidth="23280" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot Table" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="34">
   <si>
     <t>Week</t>
   </si>
@@ -128,12 +128,6 @@
     <t>Average of Sales</t>
   </si>
   <si>
-    <t>Sum of HoursUsed</t>
-  </si>
-  <si>
-    <t>Sum of HoursUsed2</t>
-  </si>
-  <si>
     <t>average % sales Before:</t>
   </si>
   <si>
@@ -141,6 +135,9 @@
   </si>
   <si>
     <t>average % sales After:</t>
+  </si>
+  <si>
+    <t>Average of HoursUsed</t>
   </si>
 </sst>
 </file>
@@ -214,9 +211,9 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
@@ -225,7 +222,19 @@
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1292,8 +1301,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9F5105C-0A0B-4CAF-89F3-B1C2EAECEE58}" name="PivotTable1" cacheId="4" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:E14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9F5105C-0A0B-4CAF-89F3-B1C2EAECEE58}" name="PivotTable1" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
@@ -1371,7 +1380,7 @@
   <rowFields count="1">
     <field x="-2"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="9">
     <i>
       <x/>
     </i>
@@ -1399,9 +1408,6 @@
     <i i="8">
       <x v="8"/>
     </i>
-    <i i="9">
-      <x v="9"/>
-    </i>
   </rowItems>
   <colFields count="1">
     <field x="15"/>
@@ -1420,8 +1426,7 @@
       <x/>
     </i>
   </colItems>
-  <dataFields count="10">
-    <dataField name="Sum of HoursUsed2" fld="2" baseField="15" baseItem="0" numFmtId="4"/>
+  <dataFields count="9">
     <dataField name="Average of Sales" fld="1" subtotal="average" baseField="15" baseItem="0"/>
     <dataField name="Average of CarryO" fld="9" subtotal="average" baseField="15" baseItem="0"/>
     <dataField name="Average of MobCO" fld="3" subtotal="average" baseField="15" baseItem="0"/>
@@ -1430,19 +1435,10 @@
     <dataField name="Average of MobDT" fld="5" subtotal="average" baseField="15" baseItem="0"/>
     <dataField name="Average of NormDT" fld="8" subtotal="average" baseField="15" baseItem="0"/>
     <dataField name="Average of Catering" fld="11" subtotal="average" baseField="15" baseItem="0"/>
-    <dataField name="Sum of HoursUsed" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Average of HoursUsed" fld="2" subtotal="average" baseField="15" baseItem="0"/>
   </dataFields>
-  <formats count="2">
-    <format dxfId="2">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
+  <formats count="1">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -1781,17 +1777,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA540E03-21C0-4ACF-978A-4AF1244D8D01}">
   <dimension ref="A3:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="15" width="18" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23" bestFit="1" customWidth="1"/>
@@ -1847,78 +1843,78 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="4">
-        <v>35190.33</v>
+        <v>122075.35210526315</v>
       </c>
       <c r="C5" s="4">
-        <v>7413.92</v>
+        <v>95590.301999999996</v>
       </c>
       <c r="D5" s="4">
-        <v>52205.22</v>
+        <v>125419.52464285713</v>
       </c>
       <c r="E5" s="4">
-        <v>94809.470000000016</v>
+        <v>121329.42096153843</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4">
-        <v>122075.35210526315</v>
+        <v>12732.052631578947</v>
       </c>
       <c r="C6" s="4">
-        <v>95590.301999999996</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4">
-        <v>125419.52464285713</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>121329.42096153843</v>
+        <v>4652.0961538461543</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4">
-        <v>12732.052631578947</v>
+        <v>7170.8421052631575</v>
       </c>
       <c r="C7" s="4">
-        <v>0</v>
+        <v>29.6</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>4652.0961538461543</v>
+        <v>2622.9615384615386</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B8" s="4">
-        <v>7170.8421052631575</v>
+        <v>17305.052631578947</v>
       </c>
       <c r="C8" s="4">
-        <v>29.6</v>
+        <v>0</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
       </c>
       <c r="E8" s="4">
-        <v>2622.9615384615386</v>
+        <v>6323</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4">
-        <v>17305.052631578947</v>
+        <v>1151.4736842105262</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -1927,92 +1923,75 @@
         <v>0</v>
       </c>
       <c r="E9" s="4">
-        <v>6323</v>
+        <v>420.73076923076923</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" s="4">
-        <v>1151.4736842105262</v>
+        <v>7345.6315789473683</v>
       </c>
       <c r="C10" s="4">
-        <v>0</v>
+        <v>16315.8</v>
       </c>
       <c r="D10" s="4">
-        <v>0</v>
+        <v>25568.428571428572</v>
       </c>
       <c r="E10" s="4">
-        <v>420.73076923076923</v>
+        <v>18020.423076923078</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="4">
-        <v>7345.6315789473683</v>
+        <v>73369.263157894733</v>
       </c>
       <c r="C11" s="4">
-        <v>16315.8</v>
+        <v>76075.600000000006</v>
       </c>
       <c r="D11" s="4">
-        <v>25568.428571428572</v>
+        <v>93079.071428571435</v>
       </c>
       <c r="E11" s="4">
-        <v>18020.423076923078</v>
+        <v>84242.461538461532</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="4">
-        <v>73369.263157894733</v>
+        <v>2260.2105263157896</v>
       </c>
       <c r="C12" s="4">
-        <v>76075.600000000006</v>
+        <v>297.39999999999998</v>
       </c>
       <c r="D12" s="4">
-        <v>93079.071428571435</v>
+        <v>1504</v>
       </c>
       <c r="E12" s="4">
-        <v>84242.461538461532</v>
+        <v>1664.2884615384614</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B13" s="4">
-        <v>2260.2105263157896</v>
+        <v>1852.1226315789474</v>
       </c>
       <c r="C13" s="4">
-        <v>297.39999999999998</v>
+        <v>1482.7840000000001</v>
       </c>
       <c r="D13" s="4">
-        <v>1504</v>
+        <v>1864.4721428571429</v>
       </c>
       <c r="E13" s="4">
-        <v>1664.2884615384614</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="4">
-        <v>35190.33</v>
-      </c>
-      <c r="C14" s="4">
-        <v>7413.92</v>
-      </c>
-      <c r="D14" s="4">
-        <v>52205.22</v>
-      </c>
-      <c r="E14" s="4">
-        <v>94809.470000000016</v>
+        <v>1823.2590384615387</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
@@ -2028,7 +2007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
@@ -5265,7 +5244,7 @@
         <v>16</v>
       </c>
       <c r="P8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="5">
         <f>AVERAGE(E2:E20)</f>
@@ -5392,42 +5371,42 @@
         <v>16</v>
       </c>
       <c r="P10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="5">
-        <f>AVERAGE(E21:E25)</f>
+        <f t="shared" ref="Q10:Y10" si="1">AVERAGE(E21:E25)</f>
         <v>2.936704299473993E-4</v>
       </c>
       <c r="R10" s="5">
-        <f>AVERAGE(F21:F25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S10" s="5">
-        <f>AVERAGE(G21:G25)</f>
+        <f t="shared" si="1"/>
         <v>0.17042351997323815</v>
       </c>
       <c r="T10" s="5">
-        <f>AVERAGE(H21:H25)</f>
+        <f t="shared" si="1"/>
         <v>0.17071719040318553</v>
       </c>
       <c r="U10" s="5">
-        <f>AVERAGE(I21:I25)</f>
+        <f t="shared" si="1"/>
         <v>2.9982624679441388E-2</v>
       </c>
       <c r="V10" s="5">
-        <f>AVERAGE(J21:J25)</f>
+        <f t="shared" si="1"/>
         <v>0.79622802647010027</v>
       </c>
       <c r="W10" s="5">
-        <f>AVERAGE(K21:K25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X10" s="5">
-        <f>AVERAGE(L21:L25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y10" s="5">
-        <f>AVERAGE(M21:M25)</f>
+        <f t="shared" si="1"/>
         <v>3.1389762995099888E-3</v>
       </c>
     </row>
@@ -5519,42 +5498,42 @@
         <v>16</v>
       </c>
       <c r="P12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="5">
-        <f>AVERAGE(E26:E53)</f>
+        <f t="shared" ref="Q12:Y12" si="2">AVERAGE(E26:E53)</f>
         <v>0</v>
       </c>
       <c r="R12" s="5">
-        <f>AVERAGE(F26:F53)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S12" s="5">
-        <f>AVERAGE(G26:G53)</f>
+        <f t="shared" si="2"/>
         <v>0.2036825180983686</v>
       </c>
       <c r="T12" s="5">
-        <f>AVERAGE(H26:H53)</f>
+        <f t="shared" si="2"/>
         <v>0.2036825180983686</v>
       </c>
       <c r="U12" s="5">
-        <f>AVERAGE(I26:I53)</f>
+        <f t="shared" si="2"/>
         <v>4.1968857133237357E-2</v>
       </c>
       <c r="V12" s="5">
-        <f>AVERAGE(J26:J53)</f>
+        <f t="shared" si="2"/>
         <v>0.74246422756796548</v>
       </c>
       <c r="W12" s="5">
-        <f>AVERAGE(K26:K53)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X12" s="5">
-        <f>AVERAGE(L26:L53)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y12" s="5">
-        <f>AVERAGE(M26:M53)</f>
+        <f t="shared" si="2"/>
         <v>1.1872941413118954E-2</v>
       </c>
     </row>

--- a/CFA_Exploration.xlsx
+++ b/CFA_Exploration.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubProjects\Final-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Damon\Documents\Coursework\FINAL PROJECT\Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F3EAE1-49E0-4ADE-8AFE-A8CFC6F4050E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99EFAE0-1698-4251-B7FE-BB5D807A1DC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29985" yWindow="960" windowWidth="23280" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot Table" sheetId="2" r:id="rId1"/>
@@ -196,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -207,31 +207,112 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
@@ -1437,9 +1518,18 @@
     <dataField name="Average of Catering" fld="11" subtotal="average" baseField="15" baseItem="0"/>
     <dataField name="Average of HoursUsed" fld="2" subtotal="average" baseField="15" baseItem="0"/>
   </dataFields>
-  <formats count="1">
-    <format dxfId="7">
+  <formats count="4">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" offset="C1" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -1777,8 +1867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA540E03-21C0-4ACF-978A-4AF1244D8D01}">
   <dimension ref="A3:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1787,7 +1877,7 @@
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" hidden="1" customWidth="1"/>
     <col min="6" max="15" width="18" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23" bestFit="1" customWidth="1"/>
@@ -1823,6 +1913,7 @@
       <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1837,7 +1928,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1854,7 +1945,7 @@
       <c r="D5" s="4">
         <v>125419.52464285713</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>121329.42096153843</v>
       </c>
     </row>
@@ -1871,7 +1962,7 @@
       <c r="D6" s="4">
         <v>0</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>4652.0961538461543</v>
       </c>
     </row>
@@ -1888,7 +1979,7 @@
       <c r="D7" s="4">
         <v>0</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <v>2622.9615384615386</v>
       </c>
     </row>
@@ -1905,7 +1996,7 @@
       <c r="D8" s="4">
         <v>0</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="6">
         <v>6323</v>
       </c>
     </row>
@@ -1922,7 +2013,7 @@
       <c r="D9" s="4">
         <v>0</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="6">
         <v>420.73076923076923</v>
       </c>
     </row>
@@ -1939,7 +2030,7 @@
       <c r="D10" s="4">
         <v>25568.428571428572</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="6">
         <v>18020.423076923078</v>
       </c>
     </row>
@@ -1956,7 +2047,7 @@
       <c r="D11" s="4">
         <v>93079.071428571435</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="6">
         <v>84242.461538461532</v>
       </c>
     </row>
@@ -1973,7 +2064,7 @@
       <c r="D12" s="4">
         <v>1504</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="6">
         <v>1664.2884615384614</v>
       </c>
     </row>
@@ -1990,7 +2081,7 @@
       <c r="D13" s="4">
         <v>1864.4721428571429</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="6">
         <v>1823.2590384615387</v>
       </c>
     </row>
@@ -4846,8 +4937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313D59EF-73AF-489F-A5D9-77906F1787E6}">
   <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CFA_Exploration.xlsx
+++ b/CFA_Exploration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Damon\Documents\Coursework\FINAL PROJECT\Final-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bringthejoy/Documents/Final Project/Final-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99EFAE0-1698-4251-B7FE-BB5D807A1DC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0591E80C-B6AB-4C4B-A611-B2A1A7F1917C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot Table" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="33">
   <si>
     <t>Week</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Average of DineIn</t>
   </si>
   <si>
-    <t>Average of Sales</t>
-  </si>
-  <si>
     <t>average % sales Before:</t>
   </si>
   <si>
@@ -137,7 +134,7 @@
     <t>average % sales After:</t>
   </si>
   <si>
-    <t>Average of HoursUsed</t>
+    <t>Average of 3rdParty</t>
   </si>
 </sst>
 </file>
@@ -196,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -208,18 +205,47 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="20">
     <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -237,11 +263,53 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -258,6 +326,23 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -269,17 +354,146 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF9C0006"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1382,12 +1596,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9F5105C-0A0B-4CAF-89F3-B1C2EAECEE58}" name="PivotTable1" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:E13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9F5105C-0A0B-4CAF-89F3-B1C2EAECEE58}" name="PivotTable1" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0">
       <items count="22">
         <item x="20"/>
@@ -1417,7 +1631,7 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0">
       <items count="21">
@@ -1461,7 +1675,7 @@
   <rowFields count="1">
     <field x="-2"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="8">
     <i>
       <x/>
     </i>
@@ -1486,9 +1700,6 @@
     <i i="7">
       <x v="7"/>
     </i>
-    <i i="8">
-      <x v="8"/>
-    </i>
   </rowItems>
   <colFields count="1">
     <field x="15"/>
@@ -1507,8 +1718,7 @@
       <x/>
     </i>
   </colItems>
-  <dataFields count="9">
-    <dataField name="Average of Sales" fld="1" subtotal="average" baseField="15" baseItem="0"/>
+  <dataFields count="8">
     <dataField name="Average of CarryO" fld="9" subtotal="average" baseField="15" baseItem="0"/>
     <dataField name="Average of MobCO" fld="3" subtotal="average" baseField="15" baseItem="0"/>
     <dataField name="Average of DineIn" fld="10" subtotal="average" baseField="15" baseItem="0"/>
@@ -1516,19 +1726,19 @@
     <dataField name="Average of MobDT" fld="5" subtotal="average" baseField="15" baseItem="0"/>
     <dataField name="Average of NormDT" fld="8" subtotal="average" baseField="15" baseItem="0"/>
     <dataField name="Average of Catering" fld="11" subtotal="average" baseField="15" baseItem="0"/>
-    <dataField name="Average of HoursUsed" fld="2" subtotal="average" baseField="15" baseItem="0"/>
+    <dataField name="Average of 3rdParty" fld="7" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="6">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="18">
       <pivotArea grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="17">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" offset="C1" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -1867,55 +2077,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA540E03-21C0-4ACF-978A-4AF1244D8D01}">
   <dimension ref="A3:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E12"/>
+      <pivotSelection pane="bottomRight" activeRow="2" previousRow="2" click="1" r:id="rId1">
+        <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" hidden="1" customWidth="1"/>
     <col min="6" max="15" width="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -1928,67 +2140,67 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
-        <v>122075.35210526315</v>
+        <v>12732.052631578947</v>
       </c>
       <c r="C5" s="4">
-        <v>95590.301999999996</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4">
-        <v>125419.52464285713</v>
+        <v>0</v>
       </c>
       <c r="E5" s="6">
-        <v>121329.42096153843</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4652.0961538461543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4">
-        <v>12732.052631578947</v>
+        <v>7170.8421052631575</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>29.6</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
       </c>
       <c r="E6" s="6">
-        <v>4652.0961538461543</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2622.9615384615386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B7" s="4">
-        <v>7170.8421052631575</v>
+        <v>17305.052631578947</v>
       </c>
       <c r="C7" s="4">
-        <v>29.6</v>
+        <v>0</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
       </c>
       <c r="E7" s="6">
-        <v>2622.9615384615386</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4">
-        <v>17305.052631578947</v>
+        <v>1151.4736842105262</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
@@ -1997,95 +2209,78 @@
         <v>0</v>
       </c>
       <c r="E8" s="6">
-        <v>6323</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>420.73076923076923</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4">
-        <v>1151.4736842105262</v>
+        <v>7345.6315789473683</v>
       </c>
       <c r="C9" s="4">
-        <v>0</v>
+        <v>16315.8</v>
       </c>
       <c r="D9" s="4">
-        <v>0</v>
+        <v>25568.428571428572</v>
       </c>
       <c r="E9" s="6">
-        <v>420.73076923076923</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18020.423076923078</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4">
-        <v>7345.6315789473683</v>
+        <v>73369.263157894733</v>
       </c>
       <c r="C10" s="4">
-        <v>16315.8</v>
+        <v>76075.600000000006</v>
       </c>
       <c r="D10" s="4">
-        <v>25568.428571428572</v>
+        <v>93079.071428571435</v>
       </c>
       <c r="E10" s="6">
-        <v>18020.423076923078</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84242.461538461532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="4">
-        <v>73369.263157894733</v>
+        <v>2260.2105263157896</v>
       </c>
       <c r="C11" s="4">
-        <v>76075.600000000006</v>
+        <v>297.39999999999998</v>
       </c>
       <c r="D11" s="4">
-        <v>93079.071428571435</v>
+        <v>1504</v>
       </c>
       <c r="E11" s="6">
-        <v>84242.461538461532</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1664.2884615384614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B12" s="4">
-        <v>2260.2105263157896</v>
+        <v>740.47368421052636</v>
       </c>
       <c r="C12" s="4">
-        <v>297.39999999999998</v>
+        <v>2878.4</v>
       </c>
       <c r="D12" s="4">
-        <v>1504</v>
+        <v>5266.6071428571431</v>
       </c>
       <c r="E12" s="6">
-        <v>1664.2884615384614</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1852.1226315789474</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1482.7840000000001</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1864.4721428571429</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1823.2590384615387</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+        <v>3383.1923076923076</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
     </row>
   </sheetData>
@@ -2102,27 +2297,27 @@
       <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2172,7 +2367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2225,7 +2420,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2278,7 +2473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2331,7 +2526,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2384,7 +2579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2437,7 +2632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2490,7 +2685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2543,7 +2738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2596,7 +2791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2649,7 +2844,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2702,7 +2897,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2755,7 +2950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2808,7 +3003,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2861,7 +3056,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2914,7 +3109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2967,7 +3162,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3020,7 +3215,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3073,7 +3268,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3126,7 +3321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3179,7 +3374,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3232,7 +3427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3285,7 +3480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3338,7 +3533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3391,7 +3586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3444,7 +3639,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3497,7 +3692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3550,7 +3745,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3603,7 +3798,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3656,7 +3851,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3709,7 +3904,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3762,7 +3957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3815,7 +4010,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3868,7 +4063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3921,7 +4116,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3974,7 +4169,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4027,7 +4222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4080,7 +4275,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4133,7 +4328,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4186,7 +4381,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4239,7 +4434,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4292,7 +4487,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4345,7 +4540,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4398,7 +4593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4451,7 +4646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4504,7 +4699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4557,7 +4752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4610,7 +4805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4663,7 +4858,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4716,7 +4911,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4769,7 +4964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4822,7 +5017,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4875,7 +5070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4937,26 +5132,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313D59EF-73AF-489F-A5D9-77906F1787E6}">
   <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="4" width="0" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" customWidth="1"/>
+    <col min="16" max="16" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5000,7 +5195,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5044,7 +5239,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5088,7 +5283,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5132,7 +5327,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5176,7 +5371,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5247,7 +5442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5291,7 +5486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5335,7 +5530,7 @@
         <v>16</v>
       </c>
       <c r="P8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="5">
         <f>AVERAGE(E2:E20)</f>
@@ -5374,7 +5569,7 @@
         <v>1.8310978306445454E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5418,7 +5613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5462,7 +5657,7 @@
         <v>16</v>
       </c>
       <c r="P10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="5">
         <f t="shared" ref="Q10:Y10" si="1">AVERAGE(E21:E25)</f>
@@ -5501,7 +5696,7 @@
         <v>3.1389762995099888E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5545,7 +5740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5589,7 +5784,7 @@
         <v>16</v>
       </c>
       <c r="P12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="5">
         <f t="shared" ref="Q12:Y12" si="2">AVERAGE(E26:E53)</f>
@@ -5628,7 +5823,7 @@
         <v>1.1872941413118954E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5672,7 +5867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5716,7 +5911,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5760,7 +5955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5804,7 +5999,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5848,7 +6043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5892,7 +6087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5936,7 +6131,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5980,7 +6175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6024,7 +6219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6068,7 +6263,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6112,7 +6307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6156,7 +6351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6200,7 +6395,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -6244,7 +6439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -6288,7 +6483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -6332,7 +6527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -6376,7 +6571,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -6420,7 +6615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -6464,7 +6659,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -6508,7 +6703,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -6552,7 +6747,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -6596,7 +6791,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -6640,7 +6835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -6684,7 +6879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -6728,7 +6923,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -6772,7 +6967,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -6816,7 +7011,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -6860,7 +7055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -6904,7 +7099,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -6948,7 +7143,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6992,7 +7187,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -7036,7 +7231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -7080,7 +7275,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -7124,7 +7319,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -7168,7 +7363,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -7212,7 +7407,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -7256,7 +7451,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -7300,7 +7495,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -7344,7 +7539,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -7388,7 +7583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
